--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -405,59 +405,89 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF003300"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF663300"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA50021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF003300"/>
@@ -802,7 +832,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,47 +851,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7" t="e">
-        <f>SUM(J6:F36J30)</f>
-        <v>#NAME?</v>
+      <c r="J3" s="7">
+        <f>SUM(J5:J31)</f>
+        <v>9.3690599999999975</v>
       </c>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -878,36 +908,36 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="9">
@@ -920,25 +950,29 @@
         <f>H6*I6</f>
         <v>0.62</v>
       </c>
+      <c r="K6" s="1">
+        <f>I6*30</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>153145</v>
       </c>
       <c r="H7" s="9">
@@ -948,28 +982,32 @@
         <v>3</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" ref="J7:J28" si="0">H7*I7</f>
+        <f>H7*I7</f>
         <v>0.24</v>
       </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K28" si="0">I7*30</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>152907</v>
       </c>
       <c r="H8" s="9">
@@ -979,30 +1017,34 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="0"/>
+        <f>H8*I8</f>
         <v>0.09</v>
       </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="9">
@@ -1012,30 +1054,34 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="0"/>
+        <f>H9*I9</f>
         <v>0.82000000000000006</v>
       </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>1206</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="9">
@@ -1045,30 +1091,34 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="0"/>
+        <f>H10*I10</f>
         <v>0.16200000000000001</v>
       </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>1206</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="9">
@@ -1078,30 +1128,34 @@
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="0"/>
+        <f>H11*I11</f>
         <v>0.09</v>
       </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>1206</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H12" s="9">
@@ -1111,61 +1165,69 @@
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="0"/>
+        <f>H12*I12</f>
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>60</v>
       </c>
       <c r="H13" s="9">
-        <v>0.08</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I13" s="6">
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
+        <f>H13*I13</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>1206</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="18" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="9">
@@ -1175,28 +1237,32 @@
         <v>2</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="0"/>
+        <f>H14*I14</f>
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>1206</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="18" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="9">
@@ -1206,28 +1272,32 @@
         <v>4</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="0"/>
+        <f>H15*I15</f>
         <v>0.104</v>
       </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>1206</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="18" t="s">
         <v>63</v>
       </c>
       <c r="H16" s="9">
@@ -1237,28 +1307,32 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="0"/>
+        <f>H16*I16</f>
         <v>1.2999999999999999E-2</v>
       </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <v>220</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>1206</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="9">
@@ -1268,28 +1342,32 @@
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="0"/>
+        <f>H17*I17</f>
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>1206</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="18" t="s">
         <v>66</v>
       </c>
       <c r="H18" s="9">
@@ -1299,28 +1377,32 @@
         <v>3</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="0"/>
+        <f>H18*I18</f>
         <v>5.3999999999999992E-2</v>
       </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="18">
         <v>100</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>1206</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="18" t="s">
         <v>68</v>
       </c>
       <c r="H19" s="9">
@@ -1330,24 +1412,28 @@
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="0"/>
+        <f>H19*I19</f>
         <v>0.03</v>
       </c>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <v>160823</v>
       </c>
       <c r="H20" s="9">
@@ -1360,21 +1446,25 @@
         <f>H20*I20</f>
         <v>3.2700000000000005</v>
       </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <v>182696</v>
       </c>
       <c r="H21" s="9">
@@ -1384,39 +1474,43 @@
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
+        <f>H21*I21</f>
         <v>2.88</v>
       </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="18">
         <v>6449190</v>
       </c>
       <c r="H23" s="9">
@@ -1426,22 +1520,26 @@
         <v>0.104</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="0"/>
+        <f>H23*I23</f>
         <v>0.31616</v>
       </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1199999999999997</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="9">
         <v>0.17399999999999999</v>
       </c>
@@ -1449,24 +1547,28 @@
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="0"/>
+        <f>H24*I24</f>
         <v>0.17399999999999999</v>
       </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>1571483</v>
       </c>
       <c r="H25" s="9">
@@ -1477,22 +1579,26 @@
         <v>3</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="0"/>
+        <f>H25*I25</f>
         <v>8.7900000000000006E-2</v>
       </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="9">
         <v>0.03</v>
       </c>
@@ -1500,22 +1606,26 @@
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
+        <f>H26*I26</f>
         <v>0.03</v>
       </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="9">
         <v>0.02</v>
       </c>
@@ -1523,22 +1633,26 @@
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="0"/>
+        <f>H27*I27</f>
         <v>0.02</v>
       </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1546,8 +1660,12 @@
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="0"/>
+        <f>H28*I28</f>
         <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -239,9 +239,6 @@
     <t>hornbach.at</t>
   </si>
   <si>
-    <t>Rundrohr Alu silber eloxiert 12x1</t>
-  </si>
-  <si>
     <t>per meter</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t>Rundrohr Alu eloxiert 12x1</t>
   </si>
 </sst>
 </file>
@@ -457,37 +457,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF003300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF663300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA50021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF003300"/>
@@ -831,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,24 +810,25 @@
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -895,13 +866,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -909,7 +880,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -924,7 +895,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -947,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <f>H6*I6</f>
+        <f t="shared" ref="J6:J21" si="0">H6*I6</f>
         <v>0.62</v>
       </c>
       <c r="K6" s="1">
@@ -961,7 +932,7 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>4</v>
@@ -982,11 +953,11 @@
         <v>3</v>
       </c>
       <c r="J7" s="2">
-        <f>H7*I7</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="K7:K28" si="0">I7*30</f>
+        <f t="shared" ref="K7:K28" si="1">I7*30</f>
         <v>90</v>
       </c>
     </row>
@@ -996,7 +967,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>3</v>
@@ -1017,11 +988,11 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <f>H8*I8</f>
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1054,11 +1025,11 @@
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <f>H9*I9</f>
+        <f t="shared" si="0"/>
         <v>0.82000000000000006</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
     </row>
@@ -1091,11 +1062,11 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <f>H10*I10</f>
+        <f t="shared" si="0"/>
         <v>0.16200000000000001</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1128,11 +1099,11 @@
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <f>H11*I11</f>
+        <f t="shared" si="0"/>
         <v>0.09</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1165,11 +1136,11 @@
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f>H12*I12</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1202,11 +1173,11 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <f>H13*I13</f>
+        <f t="shared" si="0"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1237,11 +1208,11 @@
         <v>2</v>
       </c>
       <c r="J14" s="2">
-        <f>H14*I14</f>
+        <f t="shared" si="0"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1272,11 +1243,11 @@
         <v>4</v>
       </c>
       <c r="J15" s="2">
-        <f>H15*I15</f>
+        <f t="shared" si="0"/>
         <v>0.104</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -1307,11 +1278,11 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <f>H16*I16</f>
+        <f t="shared" si="0"/>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1342,11 +1313,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <f>H17*I17</f>
+        <f t="shared" si="0"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1377,11 +1348,11 @@
         <v>3</v>
       </c>
       <c r="J18" s="2">
-        <f>H18*I18</f>
+        <f t="shared" si="0"/>
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1412,11 +1383,11 @@
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <f>H19*I19</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -1428,7 +1399,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>36</v>
@@ -1443,11 +1414,11 @@
         <v>3</v>
       </c>
       <c r="J20" s="2">
-        <f>H20*I20</f>
+        <f t="shared" si="0"/>
         <v>3.2700000000000005</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1459,7 +1430,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>36</v>
@@ -1474,17 +1445,17 @@
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <f>H21*I21</f>
+        <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1502,10 +1473,10 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>69</v>
@@ -1520,11 +1491,11 @@
         <v>0.104</v>
       </c>
       <c r="J23" s="2">
-        <f>H23*I23</f>
+        <f t="shared" ref="J23:J28" si="2">H23*I23</f>
         <v>0.31616</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1199999999999997</v>
       </c>
     </row>
@@ -1547,11 +1518,11 @@
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <f>H24*I24</f>
+        <f t="shared" si="2"/>
         <v>0.17399999999999999</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1579,11 +1550,11 @@
         <v>3</v>
       </c>
       <c r="J25" s="2">
-        <f>H25*I25</f>
+        <f t="shared" si="2"/>
         <v>8.7900000000000006E-2</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -1592,10 +1563,10 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1606,11 +1577,11 @@
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <f>H26*I26</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1619,10 +1590,10 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1633,11 +1604,11 @@
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <f>H27*I27</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -1646,10 +1617,10 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1660,11 +1631,11 @@
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <f>H28*I28</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -92,9 +92,6 @@
     <t>zener</t>
   </si>
   <si>
-    <t>R8</t>
-  </si>
-  <si>
     <t>R9</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>R1-R2</t>
   </si>
   <si>
-    <t>R3-R6</t>
-  </si>
-  <si>
     <t>78-BZT55C9V1</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>Rundrohr Alu eloxiert 12x1</t>
+  </si>
+  <si>
+    <t>R4, R8</t>
+  </si>
+  <si>
+    <t>R3, R5-R6</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,12 +823,12 @@
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -866,21 +866,21 @@
         <v>6</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -895,21 +895,21 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="H6" s="9">
         <v>0.62</v>
@@ -928,17 +928,17 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>7</v>
@@ -967,13 +967,13 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>7</v>
@@ -998,25 +998,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="H9" s="9">
         <v>0.16400000000000001</v>
@@ -1044,16 +1044,16 @@
         <v>1206</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="9">
         <v>0.16200000000000001</v>
@@ -1075,22 +1075,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="18">
         <v>1206</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="9">
         <v>0.09</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>16</v>
@@ -1118,16 +1118,16 @@
         <v>1206</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="9">
         <v>7.4999999999999997E-2</v>
@@ -1155,16 +1155,16 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" s="9">
         <v>0.16500000000000001</v>
@@ -1183,23 +1183,23 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18">
         <v>1206</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" s="9">
         <v>1.2999999999999999E-2</v>
@@ -1218,23 +1218,23 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="18">
         <v>1206</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="9">
         <v>2.5999999999999999E-2</v>
@@ -1253,23 +1253,23 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="18">
         <v>1206</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="9">
         <v>1.2999999999999999E-2</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="18">
         <v>220</v>
@@ -1298,13 +1298,13 @@
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="9">
         <v>3.2000000000000001E-2</v>
@@ -1323,23 +1323,23 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="18">
         <v>1206</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18" s="9">
         <v>1.7999999999999999E-2</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="18">
         <v>100</v>
@@ -1368,13 +1368,13 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" s="9">
         <v>1.4999999999999999E-2</v>
@@ -1396,13 +1396,13 @@
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="18">
         <v>160823</v>
@@ -1427,13 +1427,13 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="G21" s="18">
         <v>182696</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -1473,13 +1473,13 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" s="18">
         <v>6449190</v>
@@ -1505,10 +1505,10 @@
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="9">
@@ -1531,13 +1531,13 @@
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>42</v>
-      </c>
       <c r="F25" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="18">
         <v>1571483</v>
@@ -1563,10 +1563,10 @@
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1590,10 +1590,10 @@
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1617,10 +1617,10 @@
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
